--- a/data/neighborhoods.xlsx
+++ b/data/neighborhoods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC Action\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC Action\Documents\GitHub\dcaction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -944,10 +944,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="AH41" sqref="AH41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="35" max="35" width="21.5703125" customWidth="1"/>
     <col min="43" max="43" width="21" customWidth="1"/>
   </cols>
@@ -1230,34 +1233,34 @@
         <v>41</v>
       </c>
       <c r="AH2" s="3">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AI2" s="3">
-        <v>4.3042681869999999</v>
+        <v>4.2885835999999999</v>
       </c>
       <c r="AJ2" s="3">
         <v>2</v>
       </c>
       <c r="AK2" s="3">
-        <v>0.106278227</v>
+        <v>0.108571738</v>
       </c>
       <c r="AL2" s="3">
         <v>26</v>
       </c>
       <c r="AM2" s="3">
-        <v>1.3816169490000001</v>
+        <v>1.4114325999999999</v>
       </c>
       <c r="AN2" s="3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO2" s="3">
-        <v>2.5506774440000002</v>
+        <v>2.4428641</v>
       </c>
       <c r="AP2" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ2" s="3">
-        <v>0.26569556700000002</v>
+        <v>0.32571521599999997</v>
       </c>
       <c r="AR2" s="2">
         <v>11691.074000000001</v>
@@ -1417,34 +1420,34 @@
         <v>125</v>
       </c>
       <c r="AH3" s="3">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="AI3" s="3">
-        <v>8.1563014290000009</v>
+        <v>7.7800513999999996</v>
       </c>
       <c r="AJ3" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AK3" s="3">
-        <v>0.13658877999999999</v>
+        <v>8.1040000000000001E-2</v>
       </c>
       <c r="AL3" s="3">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="AM3" s="3">
-        <v>2.7903136470000001</v>
+        <v>2.3906999999999998</v>
       </c>
       <c r="AN3" s="3">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AO3" s="3">
-        <v>4.9757341249999998</v>
+        <v>4.8220109999999998</v>
       </c>
       <c r="AP3" s="3">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AQ3" s="3">
-        <v>0.25366487700000001</v>
+        <v>0.48625320999999999</v>
       </c>
       <c r="AR3" s="2">
         <v>15564.212</v>
@@ -1604,34 +1607,34 @@
         <v>64</v>
       </c>
       <c r="AH4" s="3">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="AI4" s="3">
-        <v>13.664382829999999</v>
+        <v>11.553660000000001</v>
       </c>
       <c r="AJ4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="3">
-        <v>0.150987656</v>
+        <v>7.6010939999999999E-2</v>
       </c>
       <c r="AL4" s="3">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="AM4" s="3">
-        <v>4.3031481830000002</v>
+        <v>3.1164487599999999</v>
       </c>
       <c r="AN4" s="3">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AO4" s="3">
-        <v>8.2288272280000001</v>
+        <v>7.6010900000000001</v>
       </c>
       <c r="AP4" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AQ4" s="3">
-        <v>0.98141976099999995</v>
+        <v>0.76010944999999996</v>
       </c>
       <c r="AR4" s="2">
         <v>5169.4319999999998</v>
@@ -1787,34 +1790,34 @@
         <v>75</v>
       </c>
       <c r="AH5" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI5" s="3">
-        <v>2.6961033680000002</v>
+        <v>2.6417999999999999</v>
       </c>
       <c r="AJ5" s="3">
         <v>1</v>
       </c>
       <c r="AK5" s="3">
-        <v>5.0869875000000002E-2</v>
+        <v>5.0805200000000002E-2</v>
       </c>
       <c r="AL5" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM5" s="3">
-        <v>0.71217824799999996</v>
+        <v>0.66046800000000006</v>
       </c>
       <c r="AN5" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AO5" s="3">
-        <v>1.5769661210000001</v>
+        <v>1.4225473</v>
       </c>
       <c r="AP5" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AQ5" s="3">
-        <v>0.35608912399999998</v>
+        <v>0.50805263000000001</v>
       </c>
       <c r="AR5" s="2">
         <v>14333</v>
@@ -1970,34 +1973,34 @@
         <v>31</v>
       </c>
       <c r="AH6" s="3">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AI6" s="3">
-        <v>2.2298296240000002</v>
+        <v>3.0398832680000001</v>
       </c>
       <c r="AJ6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="3">
-        <v>0</v>
+        <v>6.0797665000000001E-2</v>
       </c>
       <c r="AL6" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AM6" s="3">
-        <v>0.54239099000000002</v>
+        <v>1.15515564</v>
       </c>
       <c r="AN6" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO6" s="3">
-        <v>1.325844641</v>
+        <v>1.3983460000000001</v>
       </c>
       <c r="AP6" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ6" s="3">
-        <v>0.361593993</v>
+        <v>0.425583657</v>
       </c>
       <c r="AR6" s="2">
         <v>10918.574000000001</v>
@@ -2157,34 +2160,34 @@
         <v>120</v>
       </c>
       <c r="AH7" s="3">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AI7" s="3">
-        <v>6.5972020679999996</v>
+        <v>7.1037999999999997</v>
       </c>
       <c r="AJ7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="3">
-        <v>0</v>
+        <v>4.9676999999999999E-2</v>
       </c>
       <c r="AL7" s="3">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AM7" s="3">
-        <v>2.5601082650000002</v>
+        <v>3.2290109999999999</v>
       </c>
       <c r="AN7" s="3">
         <v>67</v>
       </c>
       <c r="AO7" s="3">
-        <v>3.2986010339999998</v>
+        <v>3.32836</v>
       </c>
       <c r="AP7" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AQ7" s="3">
-        <v>0.73849276900000005</v>
+        <v>0.49677098800000002</v>
       </c>
       <c r="AR7" s="2">
         <v>13715.414000000001</v>
@@ -2344,34 +2347,34 @@
         <v>57</v>
       </c>
       <c r="AH8" s="3">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="AI8" s="3">
-        <v>7.4908855460000003</v>
+        <v>6.8106960000000001</v>
       </c>
       <c r="AJ8" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="3">
-        <v>0</v>
+        <v>0.11165</v>
       </c>
       <c r="AL8" s="3">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AM8" s="3">
-        <v>2.38839829</v>
+        <v>1.4514598000000001</v>
       </c>
       <c r="AN8" s="3">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO8" s="3">
-        <v>4.722514801</v>
+        <v>4.8009820000000003</v>
       </c>
       <c r="AP8" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ8" s="3">
-        <v>0.37997245499999999</v>
+        <v>0.44660302000000002</v>
       </c>
       <c r="AR8" s="2">
         <v>8786.027</v>
@@ -2531,34 +2534,34 @@
         <v>163</v>
       </c>
       <c r="AH9" s="3">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="AI9" s="3">
-        <v>12.799932780000001</v>
+        <v>150358939</v>
       </c>
       <c r="AJ9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK9" s="3">
-        <v>5.4700566999999999E-2</v>
+        <v>0.1695777</v>
       </c>
       <c r="AL9" s="3">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AM9" s="3">
-        <v>4.7042488010000003</v>
+        <v>5.4830139600000001</v>
       </c>
       <c r="AN9" s="3">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AO9" s="3">
-        <v>7.2204749039999996</v>
+        <v>7.8005699999999996</v>
       </c>
       <c r="AP9" s="3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AQ9" s="3">
-        <v>0.82050851199999997</v>
+        <v>1.5827</v>
       </c>
       <c r="AR9" s="2">
         <v>7561.5550000000003</v>
@@ -2718,34 +2721,34 @@
         <v>93</v>
       </c>
       <c r="AH10" s="3">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AI10" s="3">
-        <v>6.9701782249999997</v>
+        <v>8.4026481000000004</v>
       </c>
       <c r="AJ10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <v>8.8230104000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM10" s="3">
-        <v>3.7056643729999998</v>
+        <v>3.9042607</v>
       </c>
       <c r="AN10" s="3">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AO10" s="3">
-        <v>2.99982354</v>
+        <v>3.8193855000000001</v>
       </c>
       <c r="AP10" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AQ10" s="3">
-        <v>0.17646020800000001</v>
+        <v>0.67900185999999996</v>
       </c>
       <c r="AR10" s="2">
         <v>4552</v>
@@ -2906,31 +2909,31 @@
         <v>19</v>
       </c>
       <c r="AI11" s="3">
-        <v>1.2625334690000001</v>
+        <v>1.286217167</v>
       </c>
       <c r="AJ11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="3">
-        <v>0</v>
+        <v>6.7695640000000001E-2</v>
       </c>
       <c r="AL11" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AM11" s="3">
-        <v>0.13289825999999999</v>
+        <v>0.60926000000000002</v>
       </c>
       <c r="AN11" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AO11" s="3">
-        <v>0.99673694899999998</v>
+        <v>0.54156512320000005</v>
       </c>
       <c r="AP11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="3">
-        <v>0.13289825999999999</v>
+        <v>6.7695640000000001E-2</v>
       </c>
       <c r="AR11" s="2">
         <v>8777.3799999999992</v>
@@ -3086,10 +3089,10 @@
         <v>88</v>
       </c>
       <c r="AH12" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI12" s="3">
-        <v>2.7377170400000002</v>
+        <v>2.6464060090000001</v>
       </c>
       <c r="AJ12" s="3">
         <v>0</v>
@@ -3098,22 +3101,22 @@
         <v>0</v>
       </c>
       <c r="AL12" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AM12" s="3">
-        <v>0.51332194499999995</v>
+        <v>1.3658869728</v>
       </c>
       <c r="AN12" s="3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AO12" s="3">
-        <v>2.138841438</v>
+        <v>1.0244152296</v>
       </c>
       <c r="AP12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ12" s="3">
-        <v>8.5553658000000005E-2</v>
+        <v>0.25610380700000002</v>
       </c>
       <c r="AR12" s="2">
         <v>7564.7340000000004</v>
@@ -3271,10 +3274,10 @@
         <v>26</v>
       </c>
       <c r="AH13" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI13" s="3">
-        <v>0.81502767600000003</v>
+        <v>0.65157191000000003</v>
       </c>
       <c r="AJ13" s="3">
         <v>0</v>
@@ -3283,22 +3286,22 @@
         <v>0</v>
       </c>
       <c r="AL13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM13" s="3">
-        <v>0.40751383800000002</v>
+        <v>0.32578595859999998</v>
       </c>
       <c r="AN13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO13" s="3">
-        <v>0.32601107000000001</v>
+        <v>0.24433940000000001</v>
       </c>
       <c r="AP13" s="3">
         <v>1</v>
       </c>
       <c r="AQ13" s="3">
-        <v>8.1502768000000003E-2</v>
+        <v>8.1446489649999995E-2</v>
       </c>
       <c r="AR13" s="2">
         <v>8391.8009999999995</v>
@@ -3454,10 +3457,10 @@
         <v>83</v>
       </c>
       <c r="AH14" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AI14" s="3">
-        <v>0.18464049599999999</v>
+        <v>0.7183908</v>
       </c>
       <c r="AJ14" s="3">
         <v>0</v>
@@ -3466,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="AL14" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM14" s="3">
-        <v>0</v>
+        <v>0.45715778474000002</v>
       </c>
       <c r="AN14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AO14" s="3">
-        <v>0.12309366400000001</v>
+        <v>0.26123301900000001</v>
       </c>
       <c r="AP14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="3">
-        <v>6.1546832000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="2">
         <v>10028.42</v>
@@ -3639,34 +3642,34 @@
         <v>69</v>
       </c>
       <c r="AH15" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI15" s="3">
-        <v>0.896274456</v>
+        <v>0.75140889</v>
       </c>
       <c r="AJ15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="3">
-        <v>0</v>
+        <v>6.2617400000000004E-2</v>
       </c>
       <c r="AL15" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM15" s="3">
-        <v>0.41826141300000003</v>
+        <v>0.50093926110999998</v>
       </c>
       <c r="AN15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO15" s="3">
-        <v>0.298758152</v>
+        <v>0.12523481526999999</v>
       </c>
       <c r="AP15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="3">
-        <v>0.179254891</v>
+        <v>6.2617407639000006E-2</v>
       </c>
       <c r="AR15" s="2">
         <v>11164.701999999999</v>
@@ -3824,10 +3827,10 @@
         <v>80</v>
       </c>
       <c r="AH16" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI16" s="3">
-        <v>1.5811379860000001</v>
+        <v>1.3229355</v>
       </c>
       <c r="AJ16" s="3">
         <v>0</v>
@@ -3836,22 +3839,22 @@
         <v>0</v>
       </c>
       <c r="AL16" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AM16" s="3">
-        <v>0.54996103900000004</v>
+        <v>0.13925636999999999</v>
       </c>
       <c r="AN16" s="3">
         <v>14</v>
       </c>
       <c r="AO16" s="3">
-        <v>0.96243181799999999</v>
+        <v>0.97479459680000002</v>
       </c>
       <c r="AP16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ16" s="3">
-        <v>6.8745130000000002E-2</v>
+        <v>0.20888455646000001</v>
       </c>
       <c r="AR16" s="2">
         <v>9809.2029999999995</v>
@@ -4007,10 +4010,10 @@
         <v>42</v>
       </c>
       <c r="AH17" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AI17" s="3">
-        <v>3.3947623669999998</v>
+        <v>4.7619047600000002</v>
       </c>
       <c r="AJ17" s="3">
         <v>0</v>
@@ -4019,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="AL17" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AM17" s="3">
-        <v>0.727449079</v>
+        <v>1.9047000000000001</v>
       </c>
       <c r="AN17" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO17" s="3">
-        <v>2.6673132879999999</v>
+        <v>2.3809523809519999</v>
       </c>
       <c r="AP17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ17" s="3">
-        <v>0</v>
+        <v>0.47619047618999999</v>
       </c>
       <c r="AR17" s="2">
         <v>606</v>
@@ -4194,34 +4197,34 @@
         <v>100</v>
       </c>
       <c r="AH18" s="3">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AI18" s="3">
-        <v>5.8728766759999997</v>
+        <v>6.1186844819999999</v>
       </c>
       <c r="AJ18" s="3">
         <v>1</v>
       </c>
       <c r="AK18" s="3">
-        <v>0</v>
+        <v>4.4990326999999997E-2</v>
       </c>
       <c r="AL18" s="3">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="AM18" s="3">
-        <v>2.1475444559999999</v>
+        <v>1.4846807930000001</v>
       </c>
       <c r="AN18" s="3">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AO18" s="3">
-        <v>3.4185401550000001</v>
+        <v>4.1841004100000001</v>
       </c>
       <c r="AP18" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AQ18" s="3">
-        <v>0.26296462700000001</v>
+        <v>0.40489999999999998</v>
       </c>
       <c r="AR18" s="2">
         <v>1902.0340000000001</v>
@@ -4381,34 +4384,34 @@
         <v>159</v>
       </c>
       <c r="AH19" s="3">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="AI19" s="3">
-        <v>9.2030777859999997</v>
+        <v>7.1349869999999997</v>
       </c>
       <c r="AJ19" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AK19" s="3">
-        <v>0.14843673800000001</v>
+        <v>0.262315723</v>
       </c>
       <c r="AL19" s="3">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="AM19" s="3">
-        <v>3.1913898779999998</v>
+        <v>2.6493880000000001</v>
       </c>
       <c r="AN19" s="3">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="AO19" s="3">
-        <v>5.3189831290000003</v>
+        <v>3.8560400000000001</v>
       </c>
       <c r="AP19" s="3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AQ19" s="3">
-        <v>0.51952858499999999</v>
+        <v>0.36724201248622002</v>
       </c>
       <c r="AR19" s="2">
         <v>4825.6880000000001</v>
@@ -4568,34 +4571,34 @@
         <v>85</v>
       </c>
       <c r="AH20" s="3">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="AI20" s="3">
-        <v>7.0836701489999996</v>
+        <v>6.0323700000000002</v>
       </c>
       <c r="AJ20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK20" s="3">
-        <v>0</v>
+        <v>0.15271837999999999</v>
       </c>
       <c r="AL20" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AM20" s="3">
-        <v>2.9825979579999999</v>
+        <v>2.6725717769999999</v>
       </c>
       <c r="AN20" s="3">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AO20" s="3">
-        <v>3.9519422940000002</v>
+        <v>2.9016489999999999</v>
       </c>
       <c r="AP20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ20" s="3">
-        <v>0.14912989800000001</v>
+        <v>0.30543599999999999</v>
       </c>
       <c r="AR20" s="2">
         <v>1249.357</v>
@@ -4755,34 +4758,34 @@
         <v>117</v>
       </c>
       <c r="AH21" s="3">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AI21" s="3">
-        <v>4.0959898140000002</v>
+        <v>3.9543385</v>
       </c>
       <c r="AJ21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="3">
         <v>0</v>
       </c>
       <c r="AL21" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM21" s="3">
-        <v>1.170282804</v>
+        <v>1.2683727</v>
       </c>
       <c r="AN21" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AO21" s="3">
-        <v>2.4868509579999998</v>
+        <v>2.3129149999999998</v>
       </c>
       <c r="AP21" s="3">
         <v>5</v>
       </c>
       <c r="AQ21" s="3">
-        <v>0.36571337599999998</v>
+        <v>0.37305080899999998</v>
       </c>
       <c r="AR21" s="2">
         <v>1775.4880000000001</v>
@@ -4942,34 +4945,34 @@
         <v>127</v>
       </c>
       <c r="AH22" s="3">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="AI22" s="3">
-        <v>11.06695244</v>
+        <v>12.110804</v>
       </c>
       <c r="AJ22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK22" s="3">
-        <v>0.26667355300000001</v>
+        <v>9.0379000000000001E-2</v>
       </c>
       <c r="AL22" s="3">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AM22" s="3">
-        <v>3.6000929620000002</v>
+        <v>4.5189570000000003</v>
       </c>
       <c r="AN22" s="3">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AO22" s="3">
-        <v>6.6668388189999996</v>
+        <v>6.6428668200000001</v>
       </c>
       <c r="AP22" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AQ22" s="3">
-        <v>0.53334710600000002</v>
+        <v>0.85860183400000001</v>
       </c>
       <c r="AR22" s="2">
         <v>4847.6589999999997</v>
@@ -5129,34 +5132,34 @@
         <v>120</v>
       </c>
       <c r="AH23" s="3">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="AI23" s="3">
-        <v>13.12616296</v>
+        <v>14.5482932</v>
       </c>
       <c r="AJ23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="3">
-        <v>0</v>
+        <v>0.14193455999999999</v>
       </c>
       <c r="AL23" s="3">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AM23" s="3">
-        <v>4.6576707290000003</v>
+        <v>5.7483500000000003</v>
       </c>
       <c r="AN23" s="3">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AO23" s="3">
-        <v>7.9744968529999998</v>
+        <v>7.8773600000000004</v>
       </c>
       <c r="AP23" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AQ23" s="3">
-        <v>0.42342461199999998</v>
+        <v>0.78064012000000005</v>
       </c>
       <c r="AR23" s="2">
         <v>1448.617</v>
@@ -5316,34 +5319,34 @@
         <v>84</v>
       </c>
       <c r="AH24" s="3">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI24" s="3">
-        <v>20.444341229999999</v>
+        <v>20.658608699999998</v>
       </c>
       <c r="AJ24" s="3">
         <v>7</v>
       </c>
       <c r="AK24" s="3">
-        <v>0.36726361499999999</v>
+        <v>0.43167242220000002</v>
       </c>
       <c r="AL24" s="3">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AM24" s="3">
-        <v>9.4876433850000002</v>
+        <v>9.7434632460999993</v>
       </c>
       <c r="AN24" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AO24" s="3">
-        <v>9.2428009749999998</v>
+        <v>9.4967932899999994</v>
       </c>
       <c r="AP24" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AQ24" s="3">
-        <v>1.2854226520000001</v>
+        <v>0.98667982229999995</v>
       </c>
       <c r="AR24" s="2">
         <v>1308.944</v>
@@ -5503,34 +5506,34 @@
         <v>65</v>
       </c>
       <c r="AH25" s="3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AI25" s="3">
-        <v>6.4557398680000002</v>
+        <v>7.5658373344000003</v>
       </c>
       <c r="AJ25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK25" s="3">
-        <v>0.14034217099999999</v>
+        <v>0.29099374</v>
       </c>
       <c r="AL25" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM25" s="3">
-        <v>2.8068434209999999</v>
+        <v>2.764440564</v>
       </c>
       <c r="AN25" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO25" s="3">
-        <v>3.2278699340000001</v>
+        <v>3.78291866</v>
       </c>
       <c r="AP25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ25" s="3">
-        <v>0.28068434199999998</v>
+        <v>0.72748435899999997</v>
       </c>
       <c r="AR25" s="2">
         <v>412.00099999999998</v>
@@ -5690,34 +5693,34 @@
         <v>109</v>
       </c>
       <c r="AH26" s="3">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AI26" s="3">
-        <v>10.368610370000001</v>
+        <v>10.1198005</v>
       </c>
       <c r="AJ26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK26" s="3">
-        <v>0.110696908</v>
+        <v>0.111615447577944</v>
       </c>
       <c r="AL26" s="3">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM26" s="3">
-        <v>3.062614451</v>
+        <v>3.0508222329999999</v>
       </c>
       <c r="AN26" s="3">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AO26" s="3">
-        <v>6.7156124110000004</v>
+        <v>6.4364907999999996</v>
       </c>
       <c r="AP26" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AQ26" s="3">
-        <v>0.40588866200000001</v>
+        <v>0.520872</v>
       </c>
       <c r="AR26" s="2">
         <v>11334.995999999999</v>
@@ -5877,34 +5880,34 @@
         <v>121</v>
       </c>
       <c r="AH27" s="3">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="AI27" s="3">
-        <v>6.3368933519999997</v>
+        <v>7.2531994199999996</v>
       </c>
       <c r="AJ27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK27" s="3">
-        <v>0</v>
+        <v>0.1046134532</v>
       </c>
       <c r="AL27" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AM27" s="3">
-        <v>2.0084142859999998</v>
+        <v>2.0573978999999998</v>
       </c>
       <c r="AN27" s="3">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="AO27" s="3">
-        <v>3.9129450750000001</v>
+        <v>4.742476549</v>
       </c>
       <c r="AP27" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" s="3">
-        <v>0.38090615799999999</v>
+        <v>0.34871151096690001</v>
       </c>
       <c r="AR27" s="2">
         <v>14844.382</v>
@@ -6060,34 +6063,34 @@
         <v>25</v>
       </c>
       <c r="AH28" s="3">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AI28" s="3">
-        <v>3.5319048739999999</v>
+        <v>10.90387</v>
       </c>
       <c r="AJ28" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="3">
-        <v>0</v>
+        <v>0.57388809100000004</v>
       </c>
       <c r="AL28" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AM28" s="3">
-        <v>1.1773016249999999</v>
+        <v>3.4433285499999999</v>
       </c>
       <c r="AN28" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AO28" s="3">
-        <v>2.3546032490000002</v>
+        <v>5.7388809099999998</v>
       </c>
       <c r="AP28" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ28" s="3">
-        <v>0</v>
+        <v>1.1477761</v>
       </c>
       <c r="AR28" s="2">
         <v>1969</v>
@@ -6247,34 +6250,34 @@
         <v>37</v>
       </c>
       <c r="AH29" s="3">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AI29" s="3">
-        <v>24.985638099999999</v>
+        <v>29.2187169</v>
       </c>
       <c r="AJ29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK29" s="3">
-        <v>0.581061351</v>
+        <v>1.0586491</v>
       </c>
       <c r="AL29" s="3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AM29" s="3">
-        <v>11.42753991</v>
+        <v>12.915519789999999</v>
       </c>
       <c r="AN29" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AO29" s="3">
-        <v>12.20228837</v>
+        <v>13.76243912</v>
       </c>
       <c r="AP29" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AQ29" s="3">
-        <v>0.77474846799999997</v>
+        <v>1.482108829</v>
       </c>
       <c r="AR29" s="2">
         <v>54.433999999999997</v>
@@ -6432,34 +6435,34 @@
         <v>7</v>
       </c>
       <c r="AH30" s="3">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AI30" s="3">
-        <v>33.358548970000001</v>
+        <v>15.548645046600001</v>
       </c>
       <c r="AJ30" s="3">
         <v>2</v>
       </c>
       <c r="AK30" s="3">
-        <v>0.51320844600000004</v>
+        <v>0.88849400266540002</v>
       </c>
       <c r="AL30" s="3">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AM30" s="3">
-        <v>21.041546279999999</v>
+        <v>7.9964460199999996</v>
       </c>
       <c r="AN30" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AO30" s="3">
-        <v>9.7509604700000008</v>
+        <v>6.2194580000000004</v>
       </c>
       <c r="AP30" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="3">
-        <v>1.5396253369999999</v>
+        <v>0.44424700133</v>
       </c>
       <c r="AR30" s="2">
         <v>0.89300000000000002</v>
@@ -6619,34 +6622,34 @@
         <v>38</v>
       </c>
       <c r="AH31" s="3">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="AI31" s="3">
-        <v>29.115358629999999</v>
+        <v>22.358683670000001</v>
       </c>
       <c r="AJ31" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK31" s="3">
-        <v>0.155697105</v>
+        <v>0.78727759406999998</v>
       </c>
       <c r="AL31" s="3">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AM31" s="3">
-        <v>11.52158577</v>
+        <v>9.6047866400000004</v>
       </c>
       <c r="AN31" s="3">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="AO31" s="3">
-        <v>15.881104710000001</v>
+        <v>10.706975</v>
       </c>
       <c r="AP31" s="3">
         <v>8</v>
       </c>
       <c r="AQ31" s="3">
-        <v>1.24557684</v>
+        <v>1.2596441505</v>
       </c>
       <c r="AR31" s="2">
         <v>25.027999999999999</v>
@@ -6806,34 +6809,34 @@
         <v>90</v>
       </c>
       <c r="AH32" s="3">
-        <v>342</v>
+        <v>253</v>
       </c>
       <c r="AI32" s="3">
-        <v>26.49841567</v>
+        <v>18.998272</v>
       </c>
       <c r="AJ32" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK32" s="3">
-        <v>0.54236523299999995</v>
+        <v>0.97619583990000003</v>
       </c>
       <c r="AL32" s="3">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="AM32" s="3">
-        <v>11.234708400000001</v>
+        <v>7.9597506946000003</v>
       </c>
       <c r="AN32" s="3">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="AO32" s="3">
-        <v>13.171727089999999</v>
+        <v>9.3114064728999999</v>
       </c>
       <c r="AP32" s="3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AQ32" s="3">
-        <v>1.394653457</v>
+        <v>0.75091987680000005</v>
       </c>
       <c r="AR32" s="2">
         <v>132.143</v>
@@ -6993,34 +6996,34 @@
         <v>84</v>
       </c>
       <c r="AH33" s="3">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="AI33" s="3">
-        <v>24.86321903</v>
+        <v>18.219290999999998</v>
       </c>
       <c r="AJ33" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AK33" s="3">
-        <v>0.16630915700000001</v>
+        <v>0.57708161581999995</v>
       </c>
       <c r="AL33" s="3">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="AM33" s="3">
-        <v>10.31116776</v>
+        <v>6.5952184666000004</v>
       </c>
       <c r="AN33" s="3">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="AO33" s="3">
-        <v>13.803660069999999</v>
+        <v>10.057708161500001</v>
       </c>
       <c r="AP33" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AQ33" s="3">
-        <v>0.58208205099999999</v>
+        <v>0.98928276998999998</v>
       </c>
       <c r="AR33" s="2">
         <v>57.607999999999997</v>
@@ -7180,34 +7183,34 @@
         <v>101</v>
       </c>
       <c r="AH34" s="3">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="AI34" s="3">
-        <v>18.678435839999999</v>
+        <v>20.19785655399</v>
       </c>
       <c r="AJ34" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK34" s="3">
-        <v>0.32961945599999998</v>
+        <v>0.74196207700000005</v>
       </c>
       <c r="AL34" s="3">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="AM34" s="3">
-        <v>8.9546618880000004</v>
+        <v>9.0684253914999999</v>
       </c>
       <c r="AN34" s="3">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="AO34" s="3">
-        <v>8.6250424320000008</v>
+        <v>9.6455070070000009</v>
       </c>
       <c r="AP34" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AQ34" s="3">
-        <v>0.65923891199999995</v>
+        <v>0.74196207700000005</v>
       </c>
       <c r="AR34" s="2">
         <v>139.93600000000001</v>
@@ -7367,34 +7370,34 @@
         <v>87</v>
       </c>
       <c r="AH35" s="3">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="AI35" s="3">
-        <v>13.48020043</v>
+        <v>12.74165202108</v>
       </c>
       <c r="AJ35" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK35" s="3">
-        <v>0.18986197799999999</v>
+        <v>0.31383379</v>
       </c>
       <c r="AL35" s="3">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="AM35" s="3">
-        <v>6.7084565539999996</v>
+        <v>5.71177504</v>
       </c>
       <c r="AN35" s="3">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AO35" s="3">
-        <v>5.695859338</v>
+        <v>6.0256088370000001</v>
       </c>
       <c r="AP35" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AQ35" s="3">
-        <v>0.88602256400000001</v>
+        <v>0.690434345</v>
       </c>
       <c r="AR35" s="2">
         <v>304.15199999999999</v>
@@ -7554,34 +7557,34 @@
         <v>69</v>
       </c>
       <c r="AH36" s="3">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="AI36" s="3">
-        <v>14.19418157</v>
+        <v>12.067259999999999</v>
       </c>
       <c r="AJ36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK36" s="3">
-        <v>0.18434001999999999</v>
+        <v>0.39564787000000001</v>
       </c>
       <c r="AL36" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AM36" s="3">
-        <v>3.8711404269999998</v>
+        <v>4.74777</v>
       </c>
       <c r="AN36" s="3">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="AO36" s="3">
-        <v>9.7700210770000009</v>
+        <v>6.3303649999999996</v>
       </c>
       <c r="AP36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ36" s="3">
-        <v>0.36868004100000001</v>
+        <v>0.59347181000000004</v>
       </c>
       <c r="AR36" s="2">
         <v>243.24</v>
@@ -7741,34 +7744,34 @@
         <v>44</v>
       </c>
       <c r="AH37" s="3">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="AI37" s="3">
-        <v>15.93185783</v>
+        <v>10.95753953</v>
       </c>
       <c r="AJ37" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK37" s="3">
-        <v>0.23089649000000001</v>
+        <v>0.49806997883199999</v>
       </c>
       <c r="AL37" s="3">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="AM37" s="3">
-        <v>9.0049631199999993</v>
+        <v>6.2258747349999997</v>
       </c>
       <c r="AN37" s="3">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO37" s="3">
-        <v>6.3496534819999999</v>
+        <v>3.6110073465000001</v>
       </c>
       <c r="AP37" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AQ37" s="3">
-        <v>0.23089649000000001</v>
+        <v>0.62258747349999999</v>
       </c>
       <c r="AR37" s="2">
         <v>78.676000000000002</v>
@@ -7928,34 +7931,34 @@
         <v>80</v>
       </c>
       <c r="AH38" s="3">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AI38" s="3">
-        <v>19.355271200000001</v>
+        <v>19.744620477000002</v>
       </c>
       <c r="AJ38" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK38" s="3">
-        <v>0.70811967799999997</v>
+        <v>1.18231</v>
       </c>
       <c r="AL38" s="3">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AM38" s="3">
-        <v>8.261396242</v>
+        <v>8.6308820052000002</v>
       </c>
       <c r="AN38" s="3">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AO38" s="3">
-        <v>8.733476027</v>
+        <v>9.222038306</v>
       </c>
       <c r="AP38" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AQ38" s="3">
-        <v>1.0621795169999999</v>
+        <v>0.70938756207099996</v>
       </c>
       <c r="AR38" s="2">
         <v>32.89</v>
@@ -8115,34 +8118,34 @@
         <v>90</v>
       </c>
       <c r="AH39" s="3">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AI39" s="3">
-        <v>16.665541739999998</v>
+        <v>16.154842642688401</v>
       </c>
       <c r="AJ39" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK39" s="3">
-        <v>0.30300985000000003</v>
+        <v>0.53341461556046599</v>
       </c>
       <c r="AL39" s="3">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AM39" s="3">
-        <v>8.8630381089999997</v>
+        <v>8.0012192334069905</v>
       </c>
       <c r="AN39" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO39" s="3">
-        <v>6.74196916</v>
+        <v>6.85818794348853</v>
       </c>
       <c r="AP39" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ39" s="3">
-        <v>0.60601970000000005</v>
+        <v>0.76202087937200003</v>
       </c>
       <c r="AR39" s="2">
         <v>67.149000000000001</v>
@@ -8302,34 +8305,34 @@
         <v>198</v>
       </c>
       <c r="AH40" s="3">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="AI40" s="3">
-        <v>14.800668</v>
+        <v>14.954549889999999</v>
       </c>
       <c r="AJ40" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AK40" s="3">
-        <v>0.18854354100000001</v>
+        <v>0.52129149959999999</v>
       </c>
       <c r="AL40" s="3">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AM40" s="3">
-        <v>7.2589263429999997</v>
+        <v>7.5913074600000003</v>
       </c>
       <c r="AN40" s="3">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="AO40" s="3">
-        <v>6.3790564830000003</v>
+        <v>6.1577558400900001</v>
       </c>
       <c r="AP40" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AQ40" s="3">
-        <v>0.84844593599999996</v>
+        <v>0.68419509000000001</v>
       </c>
       <c r="AR40" s="2">
         <v>462.34199999999998</v>

--- a/data/neighborhoods.xlsx
+++ b/data/neighborhoods.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC Action\Documents\GitHub\dcaction\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC Action\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -944,13 +944,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="AH41" sqref="AH41"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="35" max="35" width="21.5703125" customWidth="1"/>
     <col min="43" max="43" width="21" customWidth="1"/>
   </cols>
@@ -1233,34 +1230,34 @@
         <v>41</v>
       </c>
       <c r="AH2" s="3">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI2" s="3">
-        <v>4.2885835999999999</v>
+        <v>4.3042681869999999</v>
       </c>
       <c r="AJ2" s="3">
         <v>2</v>
       </c>
       <c r="AK2" s="3">
-        <v>0.108571738</v>
+        <v>0.106278227</v>
       </c>
       <c r="AL2" s="3">
         <v>26</v>
       </c>
       <c r="AM2" s="3">
-        <v>1.4114325999999999</v>
+        <v>1.3816169490000001</v>
       </c>
       <c r="AN2" s="3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AO2" s="3">
-        <v>2.4428641</v>
+        <v>2.5506774440000002</v>
       </c>
       <c r="AP2" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ2" s="3">
-        <v>0.32571521599999997</v>
+        <v>0.26569556700000002</v>
       </c>
       <c r="AR2" s="2">
         <v>11691.074000000001</v>
@@ -1420,34 +1417,34 @@
         <v>125</v>
       </c>
       <c r="AH3" s="3">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="AI3" s="3">
-        <v>7.7800513999999996</v>
+        <v>8.1563014290000009</v>
       </c>
       <c r="AJ3" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK3" s="3">
-        <v>8.1040000000000001E-2</v>
+        <v>0.13658877999999999</v>
       </c>
       <c r="AL3" s="3">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="AM3" s="3">
-        <v>2.3906999999999998</v>
+        <v>2.7903136470000001</v>
       </c>
       <c r="AN3" s="3">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="AO3" s="3">
-        <v>4.8220109999999998</v>
+        <v>4.9757341249999998</v>
       </c>
       <c r="AP3" s="3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AQ3" s="3">
-        <v>0.48625320999999999</v>
+        <v>0.25366487700000001</v>
       </c>
       <c r="AR3" s="2">
         <v>15564.212</v>
@@ -1607,34 +1604,34 @@
         <v>64</v>
       </c>
       <c r="AH4" s="3">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="AI4" s="3">
-        <v>11.553660000000001</v>
+        <v>13.664382829999999</v>
       </c>
       <c r="AJ4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK4" s="3">
-        <v>7.6010939999999999E-2</v>
+        <v>0.150987656</v>
       </c>
       <c r="AL4" s="3">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="AM4" s="3">
-        <v>3.1164487599999999</v>
+        <v>4.3031481830000002</v>
       </c>
       <c r="AN4" s="3">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AO4" s="3">
-        <v>7.6010900000000001</v>
+        <v>8.2288272280000001</v>
       </c>
       <c r="AP4" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AQ4" s="3">
-        <v>0.76010944999999996</v>
+        <v>0.98141976099999995</v>
       </c>
       <c r="AR4" s="2">
         <v>5169.4319999999998</v>
@@ -1790,34 +1787,34 @@
         <v>75</v>
       </c>
       <c r="AH5" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AI5" s="3">
-        <v>2.6417999999999999</v>
+        <v>2.6961033680000002</v>
       </c>
       <c r="AJ5" s="3">
         <v>1</v>
       </c>
       <c r="AK5" s="3">
-        <v>5.0805200000000002E-2</v>
+        <v>5.0869875000000002E-2</v>
       </c>
       <c r="AL5" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM5" s="3">
-        <v>0.66046800000000006</v>
+        <v>0.71217824799999996</v>
       </c>
       <c r="AN5" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AO5" s="3">
-        <v>1.4225473</v>
+        <v>1.5769661210000001</v>
       </c>
       <c r="AP5" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ5" s="3">
-        <v>0.50805263000000001</v>
+        <v>0.35608912399999998</v>
       </c>
       <c r="AR5" s="2">
         <v>14333</v>
@@ -1973,34 +1970,34 @@
         <v>31</v>
       </c>
       <c r="AH6" s="3">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AI6" s="3">
-        <v>3.0398832680000001</v>
+        <v>2.2298296240000002</v>
       </c>
       <c r="AJ6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="3">
-        <v>6.0797665000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="3">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AM6" s="3">
-        <v>1.15515564</v>
+        <v>0.54239099000000002</v>
       </c>
       <c r="AN6" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO6" s="3">
-        <v>1.3983460000000001</v>
+        <v>1.325844641</v>
       </c>
       <c r="AP6" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ6" s="3">
-        <v>0.425583657</v>
+        <v>0.361593993</v>
       </c>
       <c r="AR6" s="2">
         <v>10918.574000000001</v>
@@ -2160,34 +2157,34 @@
         <v>120</v>
       </c>
       <c r="AH7" s="3">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AI7" s="3">
-        <v>7.1037999999999997</v>
+        <v>6.5972020679999996</v>
       </c>
       <c r="AJ7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="3">
-        <v>4.9676999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="3">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="AM7" s="3">
-        <v>3.2290109999999999</v>
+        <v>2.5601082650000002</v>
       </c>
       <c r="AN7" s="3">
         <v>67</v>
       </c>
       <c r="AO7" s="3">
-        <v>3.32836</v>
+        <v>3.2986010339999998</v>
       </c>
       <c r="AP7" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AQ7" s="3">
-        <v>0.49677098800000002</v>
+        <v>0.73849276900000005</v>
       </c>
       <c r="AR7" s="2">
         <v>13715.414000000001</v>
@@ -2347,34 +2344,34 @@
         <v>57</v>
       </c>
       <c r="AH8" s="3">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="AI8" s="3">
-        <v>6.8106960000000001</v>
+        <v>7.4908855460000003</v>
       </c>
       <c r="AJ8" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <v>0.11165</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="3">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AM8" s="3">
-        <v>1.4514598000000001</v>
+        <v>2.38839829</v>
       </c>
       <c r="AN8" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO8" s="3">
-        <v>4.8009820000000003</v>
+        <v>4.722514801</v>
       </c>
       <c r="AP8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ8" s="3">
-        <v>0.44660302000000002</v>
+        <v>0.37997245499999999</v>
       </c>
       <c r="AR8" s="2">
         <v>8786.027</v>
@@ -2534,34 +2531,34 @@
         <v>163</v>
       </c>
       <c r="AH9" s="3">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="AI9" s="3">
-        <v>150358939</v>
+        <v>12.799932780000001</v>
       </c>
       <c r="AJ9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="3">
-        <v>0.1695777</v>
+        <v>5.4700566999999999E-2</v>
       </c>
       <c r="AL9" s="3">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AM9" s="3">
-        <v>5.4830139600000001</v>
+        <v>4.7042488010000003</v>
       </c>
       <c r="AN9" s="3">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AO9" s="3">
-        <v>7.8005699999999996</v>
+        <v>7.2204749039999996</v>
       </c>
       <c r="AP9" s="3">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AQ9" s="3">
-        <v>1.5827</v>
+        <v>0.82050851199999997</v>
       </c>
       <c r="AR9" s="2">
         <v>7561.5550000000003</v>
@@ -2721,34 +2718,34 @@
         <v>93</v>
       </c>
       <c r="AH10" s="3">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AI10" s="3">
-        <v>8.4026481000000004</v>
+        <v>6.9701782249999997</v>
       </c>
       <c r="AJ10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="3">
-        <v>0</v>
+        <v>8.8230104000000004E-2</v>
       </c>
       <c r="AL10" s="3">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM10" s="3">
-        <v>3.9042607</v>
+        <v>3.7056643729999998</v>
       </c>
       <c r="AN10" s="3">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AO10" s="3">
-        <v>3.8193855000000001</v>
+        <v>2.99982354</v>
       </c>
       <c r="AP10" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AQ10" s="3">
-        <v>0.67900185999999996</v>
+        <v>0.17646020800000001</v>
       </c>
       <c r="AR10" s="2">
         <v>4552</v>
@@ -2909,31 +2906,31 @@
         <v>19</v>
       </c>
       <c r="AI11" s="3">
-        <v>1.286217167</v>
+        <v>1.2625334690000001</v>
       </c>
       <c r="AJ11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="3">
-        <v>6.7695640000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AM11" s="3">
-        <v>0.60926000000000002</v>
+        <v>0.13289825999999999</v>
       </c>
       <c r="AN11" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AO11" s="3">
-        <v>0.54156512320000005</v>
+        <v>0.99673694899999998</v>
       </c>
       <c r="AP11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ11" s="3">
-        <v>6.7695640000000001E-2</v>
+        <v>0.13289825999999999</v>
       </c>
       <c r="AR11" s="2">
         <v>8777.3799999999992</v>
@@ -3089,10 +3086,10 @@
         <v>88</v>
       </c>
       <c r="AH12" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI12" s="3">
-        <v>2.6464060090000001</v>
+        <v>2.7377170400000002</v>
       </c>
       <c r="AJ12" s="3">
         <v>0</v>
@@ -3101,22 +3098,22 @@
         <v>0</v>
       </c>
       <c r="AL12" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AM12" s="3">
-        <v>1.3658869728</v>
+        <v>0.51332194499999995</v>
       </c>
       <c r="AN12" s="3">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AO12" s="3">
-        <v>1.0244152296</v>
+        <v>2.138841438</v>
       </c>
       <c r="AP12" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="3">
-        <v>0.25610380700000002</v>
+        <v>8.5553658000000005E-2</v>
       </c>
       <c r="AR12" s="2">
         <v>7564.7340000000004</v>
@@ -3274,10 +3271,10 @@
         <v>26</v>
       </c>
       <c r="AH13" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI13" s="3">
-        <v>0.65157191000000003</v>
+        <v>0.81502767600000003</v>
       </c>
       <c r="AJ13" s="3">
         <v>0</v>
@@ -3286,22 +3283,22 @@
         <v>0</v>
       </c>
       <c r="AL13" s="3">
+        <v>5</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0.40751383800000002</v>
+      </c>
+      <c r="AN13" s="3">
         <v>4</v>
       </c>
-      <c r="AM13" s="3">
-        <v>0.32578595859999998</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>3</v>
-      </c>
       <c r="AO13" s="3">
-        <v>0.24433940000000001</v>
+        <v>0.32601107000000001</v>
       </c>
       <c r="AP13" s="3">
         <v>1</v>
       </c>
       <c r="AQ13" s="3">
-        <v>8.1446489649999995E-2</v>
+        <v>8.1502768000000003E-2</v>
       </c>
       <c r="AR13" s="2">
         <v>8391.8009999999995</v>
@@ -3457,10 +3454,10 @@
         <v>83</v>
       </c>
       <c r="AH14" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AI14" s="3">
-        <v>0.7183908</v>
+        <v>0.18464049599999999</v>
       </c>
       <c r="AJ14" s="3">
         <v>0</v>
@@ -3469,22 +3466,22 @@
         <v>0</v>
       </c>
       <c r="AL14" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="3">
-        <v>0.45715778474000002</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO14" s="3">
-        <v>0.26123301900000001</v>
+        <v>0.12309366400000001</v>
       </c>
       <c r="AP14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="3">
-        <v>0</v>
+        <v>6.1546832000000003E-2</v>
       </c>
       <c r="AR14" s="2">
         <v>10028.42</v>
@@ -3642,34 +3639,34 @@
         <v>69</v>
       </c>
       <c r="AH15" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI15" s="3">
-        <v>0.75140889</v>
+        <v>0.896274456</v>
       </c>
       <c r="AJ15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="3">
-        <v>6.2617400000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM15" s="3">
-        <v>0.50093926110999998</v>
+        <v>0.41826141300000003</v>
       </c>
       <c r="AN15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO15" s="3">
-        <v>0.12523481526999999</v>
+        <v>0.298758152</v>
       </c>
       <c r="AP15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ15" s="3">
-        <v>6.2617407639000006E-2</v>
+        <v>0.179254891</v>
       </c>
       <c r="AR15" s="2">
         <v>11164.701999999999</v>
@@ -3827,10 +3824,10 @@
         <v>80</v>
       </c>
       <c r="AH16" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI16" s="3">
-        <v>1.3229355</v>
+        <v>1.5811379860000001</v>
       </c>
       <c r="AJ16" s="3">
         <v>0</v>
@@ -3839,22 +3836,22 @@
         <v>0</v>
       </c>
       <c r="AL16" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AM16" s="3">
-        <v>0.13925636999999999</v>
+        <v>0.54996103900000004</v>
       </c>
       <c r="AN16" s="3">
         <v>14</v>
       </c>
       <c r="AO16" s="3">
-        <v>0.97479459680000002</v>
+        <v>0.96243181799999999</v>
       </c>
       <c r="AP16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="3">
-        <v>0.20888455646000001</v>
+        <v>6.8745130000000002E-2</v>
       </c>
       <c r="AR16" s="2">
         <v>9809.2029999999995</v>
@@ -4010,10 +4007,10 @@
         <v>42</v>
       </c>
       <c r="AH17" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AI17" s="3">
-        <v>4.7619047600000002</v>
+        <v>3.3947623669999998</v>
       </c>
       <c r="AJ17" s="3">
         <v>0</v>
@@ -4022,22 +4019,22 @@
         <v>0</v>
       </c>
       <c r="AL17" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AM17" s="3">
-        <v>1.9047000000000001</v>
+        <v>0.727449079</v>
       </c>
       <c r="AN17" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO17" s="3">
-        <v>2.3809523809519999</v>
+        <v>2.6673132879999999</v>
       </c>
       <c r="AP17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="3">
-        <v>0.47619047618999999</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="2">
         <v>606</v>
@@ -4197,34 +4194,34 @@
         <v>100</v>
       </c>
       <c r="AH18" s="3">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AI18" s="3">
-        <v>6.1186844819999999</v>
+        <v>5.8728766759999997</v>
       </c>
       <c r="AJ18" s="3">
         <v>1</v>
       </c>
       <c r="AK18" s="3">
-        <v>4.4990326999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="3">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="AM18" s="3">
-        <v>1.4846807930000001</v>
+        <v>2.1475444559999999</v>
       </c>
       <c r="AN18" s="3">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AO18" s="3">
-        <v>4.1841004100000001</v>
+        <v>3.4185401550000001</v>
       </c>
       <c r="AP18" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AQ18" s="3">
-        <v>0.40489999999999998</v>
+        <v>0.26296462700000001</v>
       </c>
       <c r="AR18" s="2">
         <v>1902.0340000000001</v>
@@ -4384,34 +4381,34 @@
         <v>159</v>
       </c>
       <c r="AH19" s="3">
-        <v>272</v>
+        <v>372</v>
       </c>
       <c r="AI19" s="3">
-        <v>7.1349869999999997</v>
+        <v>9.2030777859999997</v>
       </c>
       <c r="AJ19" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AK19" s="3">
-        <v>0.262315723</v>
+        <v>0.14843673800000001</v>
       </c>
       <c r="AL19" s="3">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="AM19" s="3">
-        <v>2.6493880000000001</v>
+        <v>3.1913898779999998</v>
       </c>
       <c r="AN19" s="3">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="AO19" s="3">
-        <v>3.8560400000000001</v>
+        <v>5.3189831290000003</v>
       </c>
       <c r="AP19" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AQ19" s="3">
-        <v>0.36724201248622002</v>
+        <v>0.51952858499999999</v>
       </c>
       <c r="AR19" s="2">
         <v>4825.6880000000001</v>
@@ -4571,34 +4568,34 @@
         <v>85</v>
       </c>
       <c r="AH20" s="3">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="AI20" s="3">
-        <v>6.0323700000000002</v>
+        <v>7.0836701489999996</v>
       </c>
       <c r="AJ20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>40</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>2.9825979579999999</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>53</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>3.9519422940000002</v>
+      </c>
+      <c r="AP20" s="3">
         <v>2</v>
       </c>
-      <c r="AK20" s="3">
-        <v>0.15271837999999999</v>
-      </c>
-      <c r="AL20" s="3">
-        <v>35</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>2.6725717769999999</v>
-      </c>
-      <c r="AN20" s="3">
-        <v>38</v>
-      </c>
-      <c r="AO20" s="3">
-        <v>2.9016489999999999</v>
-      </c>
-      <c r="AP20" s="3">
-        <v>4</v>
-      </c>
       <c r="AQ20" s="3">
-        <v>0.30543599999999999</v>
+        <v>0.14912989800000001</v>
       </c>
       <c r="AR20" s="2">
         <v>1249.357</v>
@@ -4758,34 +4755,34 @@
         <v>117</v>
       </c>
       <c r="AH21" s="3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AI21" s="3">
-        <v>3.9543385</v>
+        <v>4.0959898140000002</v>
       </c>
       <c r="AJ21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21" s="3">
         <v>0</v>
       </c>
       <c r="AL21" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM21" s="3">
-        <v>1.2683727</v>
+        <v>1.170282804</v>
       </c>
       <c r="AN21" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AO21" s="3">
-        <v>2.3129149999999998</v>
+        <v>2.4868509579999998</v>
       </c>
       <c r="AP21" s="3">
         <v>5</v>
       </c>
       <c r="AQ21" s="3">
-        <v>0.37305080899999998</v>
+        <v>0.36571337599999998</v>
       </c>
       <c r="AR21" s="2">
         <v>1775.4880000000001</v>
@@ -4945,34 +4942,34 @@
         <v>127</v>
       </c>
       <c r="AH22" s="3">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="AI22" s="3">
-        <v>12.110804</v>
+        <v>11.06695244</v>
       </c>
       <c r="AJ22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK22" s="3">
-        <v>9.0379000000000001E-2</v>
+        <v>0.26667355300000001</v>
       </c>
       <c r="AL22" s="3">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AM22" s="3">
-        <v>4.5189570000000003</v>
+        <v>3.6000929620000002</v>
       </c>
       <c r="AN22" s="3">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AO22" s="3">
-        <v>6.6428668200000001</v>
+        <v>6.6668388189999996</v>
       </c>
       <c r="AP22" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AQ22" s="3">
-        <v>0.85860183400000001</v>
+        <v>0.53334710600000002</v>
       </c>
       <c r="AR22" s="2">
         <v>4847.6589999999997</v>
@@ -5132,34 +5129,34 @@
         <v>120</v>
       </c>
       <c r="AH23" s="3">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="AI23" s="3">
-        <v>14.5482932</v>
+        <v>13.12616296</v>
       </c>
       <c r="AJ23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="3">
-        <v>0.14193455999999999</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="3">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AM23" s="3">
-        <v>5.7483500000000003</v>
+        <v>4.6576707290000003</v>
       </c>
       <c r="AN23" s="3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AO23" s="3">
-        <v>7.8773600000000004</v>
+        <v>7.9744968529999998</v>
       </c>
       <c r="AP23" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AQ23" s="3">
-        <v>0.78064012000000005</v>
+        <v>0.42342461199999998</v>
       </c>
       <c r="AR23" s="2">
         <v>1448.617</v>
@@ -5319,34 +5316,34 @@
         <v>84</v>
       </c>
       <c r="AH24" s="3">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AI24" s="3">
-        <v>20.658608699999998</v>
+        <v>20.444341229999999</v>
       </c>
       <c r="AJ24" s="3">
         <v>7</v>
       </c>
       <c r="AK24" s="3">
-        <v>0.43167242220000002</v>
+        <v>0.36726361499999999</v>
       </c>
       <c r="AL24" s="3">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AM24" s="3">
-        <v>9.7434632460999993</v>
+        <v>9.4876433850000002</v>
       </c>
       <c r="AN24" s="3">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AO24" s="3">
-        <v>9.4967932899999994</v>
+        <v>9.2428009749999998</v>
       </c>
       <c r="AP24" s="3">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AQ24" s="3">
-        <v>0.98667982229999995</v>
+        <v>1.2854226520000001</v>
       </c>
       <c r="AR24" s="2">
         <v>1308.944</v>
@@ -5506,34 +5503,34 @@
         <v>65</v>
       </c>
       <c r="AH25" s="3">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AI25" s="3">
-        <v>7.5658373344000003</v>
+        <v>6.4557398680000002</v>
       </c>
       <c r="AJ25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>0.14034217099999999</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>20</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>2.8068434209999999</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>23</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>3.2278699340000001</v>
+      </c>
+      <c r="AP25" s="3">
         <v>2</v>
       </c>
-      <c r="AK25" s="3">
-        <v>0.29099374</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>19</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>2.764440564</v>
-      </c>
-      <c r="AN25" s="3">
-        <v>26</v>
-      </c>
-      <c r="AO25" s="3">
-        <v>3.78291866</v>
-      </c>
-      <c r="AP25" s="3">
-        <v>5</v>
-      </c>
       <c r="AQ25" s="3">
-        <v>0.72748435899999997</v>
+        <v>0.28068434199999998</v>
       </c>
       <c r="AR25" s="2">
         <v>412.00099999999998</v>
@@ -5693,34 +5690,34 @@
         <v>109</v>
       </c>
       <c r="AH26" s="3">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AI26" s="3">
-        <v>10.1198005</v>
+        <v>10.368610370000001</v>
       </c>
       <c r="AJ26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK26" s="3">
-        <v>0.111615447577944</v>
+        <v>0.110696908</v>
       </c>
       <c r="AL26" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM26" s="3">
-        <v>3.0508222329999999</v>
+        <v>3.062614451</v>
       </c>
       <c r="AN26" s="3">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AO26" s="3">
-        <v>6.4364907999999996</v>
+        <v>6.7156124110000004</v>
       </c>
       <c r="AP26" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AQ26" s="3">
-        <v>0.520872</v>
+        <v>0.40588866200000001</v>
       </c>
       <c r="AR26" s="2">
         <v>11334.995999999999</v>
@@ -5880,34 +5877,34 @@
         <v>121</v>
       </c>
       <c r="AH27" s="3">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="AI27" s="3">
-        <v>7.2531994199999996</v>
+        <v>6.3368933519999997</v>
       </c>
       <c r="AJ27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK27" s="3">
-        <v>0.1046134532</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AM27" s="3">
-        <v>2.0573978999999998</v>
+        <v>2.0084142859999998</v>
       </c>
       <c r="AN27" s="3">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="AO27" s="3">
-        <v>4.742476549</v>
+        <v>3.9129450750000001</v>
       </c>
       <c r="AP27" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ27" s="3">
-        <v>0.34871151096690001</v>
+        <v>0.38090615799999999</v>
       </c>
       <c r="AR27" s="2">
         <v>14844.382</v>
@@ -6063,34 +6060,34 @@
         <v>25</v>
       </c>
       <c r="AH28" s="3">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AI28" s="3">
-        <v>10.90387</v>
+        <v>3.5319048739999999</v>
       </c>
       <c r="AJ28" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="3">
-        <v>0.57388809100000004</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AM28" s="3">
-        <v>3.4433285499999999</v>
+        <v>1.1773016249999999</v>
       </c>
       <c r="AN28" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AO28" s="3">
-        <v>5.7388809099999998</v>
+        <v>2.3546032490000002</v>
       </c>
       <c r="AP28" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="3">
-        <v>1.1477761</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="2">
         <v>1969</v>
@@ -6250,34 +6247,34 @@
         <v>37</v>
       </c>
       <c r="AH29" s="3">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="AI29" s="3">
-        <v>29.2187169</v>
+        <v>24.985638099999999</v>
       </c>
       <c r="AJ29" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK29" s="3">
-        <v>1.0586491</v>
+        <v>0.581061351</v>
       </c>
       <c r="AL29" s="3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AM29" s="3">
-        <v>12.915519789999999</v>
+        <v>11.42753991</v>
       </c>
       <c r="AN29" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AO29" s="3">
-        <v>13.76243912</v>
+        <v>12.20228837</v>
       </c>
       <c r="AP29" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ29" s="3">
-        <v>1.482108829</v>
+        <v>0.77474846799999997</v>
       </c>
       <c r="AR29" s="2">
         <v>54.433999999999997</v>
@@ -6435,34 +6432,34 @@
         <v>7</v>
       </c>
       <c r="AH30" s="3">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AI30" s="3">
-        <v>15.548645046600001</v>
+        <v>33.358548970000001</v>
       </c>
       <c r="AJ30" s="3">
         <v>2</v>
       </c>
       <c r="AK30" s="3">
-        <v>0.88849400266540002</v>
+        <v>0.51320844600000004</v>
       </c>
       <c r="AL30" s="3">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AM30" s="3">
-        <v>7.9964460199999996</v>
+        <v>21.041546279999999</v>
       </c>
       <c r="AN30" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AO30" s="3">
-        <v>6.2194580000000004</v>
+        <v>9.7509604700000008</v>
       </c>
       <c r="AP30" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ30" s="3">
-        <v>0.44424700133</v>
+        <v>1.5396253369999999</v>
       </c>
       <c r="AR30" s="2">
         <v>0.89300000000000002</v>
@@ -6622,34 +6619,34 @@
         <v>38</v>
       </c>
       <c r="AH31" s="3">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="AI31" s="3">
-        <v>22.358683670000001</v>
+        <v>29.115358629999999</v>
       </c>
       <c r="AJ31" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK31" s="3">
-        <v>0.78727759406999998</v>
+        <v>0.155697105</v>
       </c>
       <c r="AL31" s="3">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="AM31" s="3">
-        <v>9.6047866400000004</v>
+        <v>11.52158577</v>
       </c>
       <c r="AN31" s="3">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AO31" s="3">
-        <v>10.706975</v>
+        <v>15.881104710000001</v>
       </c>
       <c r="AP31" s="3">
         <v>8</v>
       </c>
       <c r="AQ31" s="3">
-        <v>1.2596441505</v>
+        <v>1.24557684</v>
       </c>
       <c r="AR31" s="2">
         <v>25.027999999999999</v>
@@ -6809,34 +6806,34 @@
         <v>90</v>
       </c>
       <c r="AH32" s="3">
-        <v>253</v>
+        <v>342</v>
       </c>
       <c r="AI32" s="3">
-        <v>18.998272</v>
+        <v>26.49841567</v>
       </c>
       <c r="AJ32" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK32" s="3">
-        <v>0.97619583990000003</v>
+        <v>0.54236523299999995</v>
       </c>
       <c r="AL32" s="3">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="AM32" s="3">
-        <v>7.9597506946000003</v>
+        <v>11.234708400000001</v>
       </c>
       <c r="AN32" s="3">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="AO32" s="3">
-        <v>9.3114064728999999</v>
+        <v>13.171727089999999</v>
       </c>
       <c r="AP32" s="3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AQ32" s="3">
-        <v>0.75091987680000005</v>
+        <v>1.394653457</v>
       </c>
       <c r="AR32" s="2">
         <v>132.143</v>
@@ -6996,34 +6993,34 @@
         <v>84</v>
       </c>
       <c r="AH33" s="3">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="AI33" s="3">
-        <v>18.219290999999998</v>
+        <v>24.86321903</v>
       </c>
       <c r="AJ33" s="3">
+        <v>2</v>
+      </c>
+      <c r="AK33" s="3">
+        <v>0.16630915700000001</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>124</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>10.31116776</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>166</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>13.803660069999999</v>
+      </c>
+      <c r="AP33" s="3">
         <v>7</v>
       </c>
-      <c r="AK33" s="3">
-        <v>0.57708161581999995</v>
-      </c>
-      <c r="AL33" s="3">
-        <v>80</v>
-      </c>
-      <c r="AM33" s="3">
-        <v>6.5952184666000004</v>
-      </c>
-      <c r="AN33" s="3">
-        <v>122</v>
-      </c>
-      <c r="AO33" s="3">
-        <v>10.057708161500001</v>
-      </c>
-      <c r="AP33" s="3">
-        <v>12</v>
-      </c>
       <c r="AQ33" s="3">
-        <v>0.98928276998999998</v>
+        <v>0.58208205099999999</v>
       </c>
       <c r="AR33" s="2">
         <v>57.607999999999997</v>
@@ -7183,34 +7180,34 @@
         <v>101</v>
       </c>
       <c r="AH34" s="3">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="AI34" s="3">
-        <v>20.19785655399</v>
+        <v>18.678435839999999</v>
       </c>
       <c r="AJ34" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK34" s="3">
-        <v>0.74196207700000005</v>
+        <v>0.32961945599999998</v>
       </c>
       <c r="AL34" s="3">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="AM34" s="3">
-        <v>9.0684253914999999</v>
+        <v>8.9546618880000004</v>
       </c>
       <c r="AN34" s="3">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="AO34" s="3">
-        <v>9.6455070070000009</v>
+        <v>8.6250424320000008</v>
       </c>
       <c r="AP34" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AQ34" s="3">
-        <v>0.74196207700000005</v>
+        <v>0.65923891199999995</v>
       </c>
       <c r="AR34" s="2">
         <v>139.93600000000001</v>
@@ -7370,34 +7367,34 @@
         <v>87</v>
       </c>
       <c r="AH35" s="3">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AI35" s="3">
-        <v>12.74165202108</v>
+        <v>13.48020043</v>
       </c>
       <c r="AJ35" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK35" s="3">
-        <v>0.31383379</v>
+        <v>0.18986197799999999</v>
       </c>
       <c r="AL35" s="3">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AM35" s="3">
-        <v>5.71177504</v>
+        <v>6.7084565539999996</v>
       </c>
       <c r="AN35" s="3">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AO35" s="3">
-        <v>6.0256088370000001</v>
+        <v>5.695859338</v>
       </c>
       <c r="AP35" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AQ35" s="3">
-        <v>0.690434345</v>
+        <v>0.88602256400000001</v>
       </c>
       <c r="AR35" s="2">
         <v>304.15199999999999</v>
@@ -7557,34 +7554,34 @@
         <v>69</v>
       </c>
       <c r="AH36" s="3">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AI36" s="3">
-        <v>12.067259999999999</v>
+        <v>14.19418157</v>
       </c>
       <c r="AJ36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>0.18434001999999999</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>21</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>3.8711404269999998</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>53</v>
+      </c>
+      <c r="AO36" s="3">
+        <v>9.7700210770000009</v>
+      </c>
+      <c r="AP36" s="3">
         <v>2</v>
       </c>
-      <c r="AK36" s="3">
-        <v>0.39564787000000001</v>
-      </c>
-      <c r="AL36" s="3">
-        <v>24</v>
-      </c>
-      <c r="AM36" s="3">
-        <v>4.74777</v>
-      </c>
-      <c r="AN36" s="3">
-        <v>32</v>
-      </c>
-      <c r="AO36" s="3">
-        <v>6.3303649999999996</v>
-      </c>
-      <c r="AP36" s="3">
-        <v>3</v>
-      </c>
       <c r="AQ36" s="3">
-        <v>0.59347181000000004</v>
+        <v>0.36868004100000001</v>
       </c>
       <c r="AR36" s="2">
         <v>243.24</v>
@@ -7744,34 +7741,34 @@
         <v>44</v>
       </c>
       <c r="AH37" s="3">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="AI37" s="3">
-        <v>10.95753953</v>
+        <v>15.93185783</v>
       </c>
       <c r="AJ37" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK37" s="3">
-        <v>0.49806997883199999</v>
+        <v>0.23089649000000001</v>
       </c>
       <c r="AL37" s="3">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AM37" s="3">
-        <v>6.2258747349999997</v>
+        <v>9.0049631199999993</v>
       </c>
       <c r="AN37" s="3">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AO37" s="3">
-        <v>3.6110073465000001</v>
+        <v>6.3496534819999999</v>
       </c>
       <c r="AP37" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ37" s="3">
-        <v>0.62258747349999999</v>
+        <v>0.23089649000000001</v>
       </c>
       <c r="AR37" s="2">
         <v>78.676000000000002</v>
@@ -7931,34 +7928,34 @@
         <v>80</v>
       </c>
       <c r="AH38" s="3">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AI38" s="3">
-        <v>19.744620477000002</v>
+        <v>19.355271200000001</v>
       </c>
       <c r="AJ38" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK38" s="3">
-        <v>1.18231</v>
+        <v>0.70811967799999997</v>
       </c>
       <c r="AL38" s="3">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AM38" s="3">
-        <v>8.6308820052000002</v>
+        <v>8.261396242</v>
       </c>
       <c r="AN38" s="3">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AO38" s="3">
-        <v>9.222038306</v>
+        <v>8.733476027</v>
       </c>
       <c r="AP38" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AQ38" s="3">
-        <v>0.70938756207099996</v>
+        <v>1.0621795169999999</v>
       </c>
       <c r="AR38" s="2">
         <v>32.89</v>
@@ -8118,34 +8115,34 @@
         <v>90</v>
       </c>
       <c r="AH39" s="3">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="AI39" s="3">
-        <v>16.154842642688401</v>
+        <v>16.665541739999998</v>
       </c>
       <c r="AJ39" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK39" s="3">
-        <v>0.53341461556046599</v>
+        <v>0.30300985000000003</v>
       </c>
       <c r="AL39" s="3">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AM39" s="3">
-        <v>8.0012192334069905</v>
+        <v>8.8630381089999997</v>
       </c>
       <c r="AN39" s="3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AO39" s="3">
-        <v>6.85818794348853</v>
+        <v>6.74196916</v>
       </c>
       <c r="AP39" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ39" s="3">
-        <v>0.76202087937200003</v>
+        <v>0.60601970000000005</v>
       </c>
       <c r="AR39" s="2">
         <v>67.149000000000001</v>
@@ -8305,34 +8302,34 @@
         <v>198</v>
       </c>
       <c r="AH40" s="3">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="AI40" s="3">
-        <v>14.954549889999999</v>
+        <v>14.800668</v>
       </c>
       <c r="AJ40" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AK40" s="3">
-        <v>0.52129149959999999</v>
+        <v>0.18854354100000001</v>
       </c>
       <c r="AL40" s="3">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AM40" s="3">
-        <v>7.5913074600000003</v>
+        <v>7.2589263429999997</v>
       </c>
       <c r="AN40" s="3">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="AO40" s="3">
-        <v>6.1577558400900001</v>
+        <v>6.3790564830000003</v>
       </c>
       <c r="AP40" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AQ40" s="3">
-        <v>0.68419509000000001</v>
+        <v>0.84844593599999996</v>
       </c>
       <c r="AR40" s="2">
         <v>462.34199999999998</v>
